--- a/backend/static/rawdata/18/data.xlsx
+++ b/backend/static/rawdata/18/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B165"/>
+  <dimension ref="A1:B163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1385</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1497</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3158</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2179</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1755</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>626</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1181</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>702</v>
+        <v>890</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>828</v>
+        <v>852</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1632</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2168</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1392</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1909</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2845</v>
+        <v>982</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1508</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2508</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2277</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>889</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1240</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2477</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2461</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2889</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>905</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1418</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1494</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1986</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1292</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1408</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1017</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>769</v>
+        <v>936</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3839</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2413</v>
+        <v>850</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1792</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2426</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1968</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1088</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>717</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1607</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1816</v>
+        <v>849</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>102</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3070</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1584</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1623</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1671</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2487</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2006</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2934</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1036</v>
+        <v>881</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2157</v>
+        <v>933</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2159</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3803</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2161</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1926</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2044</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>631</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1016</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2742</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1315</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1215</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3387</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2570</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2931</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2595</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>836</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1459</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3484</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1614</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>909</v>
+        <v>780</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>729</v>
+        <v>500</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>50</v>
+        <v>454</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>4371</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2120</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1647</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1821</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1870</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3018</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1707</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>4239</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>3384</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3117</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2870</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2620</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2496</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1627</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>873</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>360</v>
+        <v>581</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>917</v>
+        <v>640</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2815</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1922</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>3490</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>4580</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>3067</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>3790</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>5555</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2172</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>4720</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2384</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1534</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2359</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1104</v>
+        <v>593</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1503</v>
+        <v>525</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1310</v>
+        <v>761</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1454</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1814</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1411</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2245</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>3085</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1636</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2466</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>813</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2310</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1291</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1184</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1552</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1171</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>872</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2519</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2470</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1878</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2710</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1644</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2813</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2557</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1984</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1197</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1327</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1769</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>483</v>
+        <v>801</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>428</v>
+        <v>711</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1619</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1865</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2167</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1333</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2811</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1729</v>
+        <v>914</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2496</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2141</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1215</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>665</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2516</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1248</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1905</v>
+        <v>73</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>2670</v>
+        <v>47</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1770</v>
+        <v>53</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2185</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1429</v>
+        <v>65</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2873</v>
+        <v>76</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1943</v>
+        <v>37</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>2187</v>
+        <v>42</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1508</v>
+        <v>108</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1589</v>
+        <v>74</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>2761</v>
+        <v>29</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>2011</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1875</v>
+        <v>81</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2025</v>
+        <v>77</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>3128</v>
+        <v>50</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>5457</v>
+        <v>68</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>810</v>
+        <v>55</v>
       </c>
     </row>
     <row r="163">
@@ -2062,27 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>2024-12-19</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>1000</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
